--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Adm-Ramp3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Adm-Ramp3.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>10.793823</v>
+        <v>11.629057</v>
       </c>
       <c r="H2">
-        <v>32.381469</v>
+        <v>34.887171</v>
       </c>
       <c r="I2">
-        <v>0.2977942722284143</v>
+        <v>0.3062678464977661</v>
       </c>
       <c r="J2">
-        <v>0.2977942722284143</v>
+        <v>0.3062678464977662</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.710031</v>
+        <v>1.357948666666666</v>
       </c>
       <c r="N2">
-        <v>2.130093</v>
+        <v>4.073846</v>
       </c>
       <c r="O2">
-        <v>0.9690438138807419</v>
+        <v>0.936754494361095</v>
       </c>
       <c r="P2">
-        <v>0.9690438138807419</v>
+        <v>0.936754494361095</v>
       </c>
       <c r="Q2">
-        <v>7.663948938513001</v>
+        <v>15.79166244774066</v>
       </c>
       <c r="R2">
-        <v>68.975540446617</v>
+        <v>142.124962029666</v>
       </c>
       <c r="S2">
-        <v>0.2885756973120625</v>
+        <v>0.2868977816850763</v>
       </c>
       <c r="T2">
-        <v>0.2885756973120625</v>
+        <v>0.2868977816850764</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>22</v>
       </c>
       <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>11.629057</v>
+      </c>
+      <c r="H3">
+        <v>34.887171</v>
+      </c>
+      <c r="I3">
+        <v>0.3062678464977661</v>
+      </c>
+      <c r="J3">
+        <v>0.3062678464977662</v>
+      </c>
+      <c r="K3">
         <v>2</v>
       </c>
-      <c r="F3">
+      <c r="L3">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G3">
-        <v>10.793823</v>
-      </c>
-      <c r="H3">
-        <v>32.381469</v>
-      </c>
-      <c r="I3">
-        <v>0.2977942722284143</v>
-      </c>
-      <c r="J3">
-        <v>0.2977942722284143</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M3">
-        <v>0.022682</v>
+        <v>0.09168266666666665</v>
       </c>
       <c r="N3">
-        <v>0.06804600000000001</v>
+        <v>0.275048</v>
       </c>
       <c r="O3">
-        <v>0.03095618611925816</v>
+        <v>0.06324550563890498</v>
       </c>
       <c r="P3">
-        <v>0.03095618611925816</v>
+        <v>0.06324550563890496</v>
       </c>
       <c r="Q3">
-        <v>0.2448254932860001</v>
+        <v>1.066182956578666</v>
       </c>
       <c r="R3">
-        <v>2.203429439574001</v>
+        <v>9.595646609207996</v>
       </c>
       <c r="S3">
-        <v>0.009218574916351826</v>
+        <v>0.01937006481268975</v>
       </c>
       <c r="T3">
-        <v>0.009218574916351824</v>
+        <v>0.01937006481268975</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,40 +664,40 @@
         <v>71.412368</v>
       </c>
       <c r="I4">
-        <v>0.6567396357672255</v>
+        <v>0.6269156120645606</v>
       </c>
       <c r="J4">
-        <v>0.6567396357672255</v>
+        <v>0.6269156120645607</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.710031</v>
+        <v>1.357948666666666</v>
       </c>
       <c r="N4">
-        <v>2.130093</v>
+        <v>4.073846</v>
       </c>
       <c r="O4">
-        <v>0.9690438138807419</v>
+        <v>0.936754494361095</v>
       </c>
       <c r="P4">
-        <v>0.9690438138807419</v>
+        <v>0.936754494361095</v>
       </c>
       <c r="Q4">
-        <v>16.901665021136</v>
+        <v>32.32477663636978</v>
       </c>
       <c r="R4">
-        <v>152.114985190224</v>
+        <v>290.922989727328</v>
       </c>
       <c r="S4">
-        <v>0.6364094813705214</v>
+        <v>0.5872660171866139</v>
       </c>
       <c r="T4">
-        <v>0.6364094813705214</v>
+        <v>0.587266017186614</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>71.412368</v>
       </c>
       <c r="I5">
-        <v>0.6567396357672255</v>
+        <v>0.6269156120645606</v>
       </c>
       <c r="J5">
-        <v>0.6567396357672255</v>
+        <v>0.6269156120645607</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.022682</v>
+        <v>0.09168266666666665</v>
       </c>
       <c r="N5">
-        <v>0.06804600000000001</v>
+        <v>0.275048</v>
       </c>
       <c r="O5">
-        <v>0.03095618611925816</v>
+        <v>0.06324550563890498</v>
       </c>
       <c r="P5">
-        <v>0.03095618611925816</v>
+        <v>0.06324550563890496</v>
       </c>
       <c r="Q5">
-        <v>0.5399251103253334</v>
+        <v>2.182425443740444</v>
       </c>
       <c r="R5">
-        <v>4.859325992928</v>
+        <v>19.641828993664</v>
       </c>
       <c r="S5">
-        <v>0.02033015439670405</v>
+        <v>0.03964959487794673</v>
       </c>
       <c r="T5">
-        <v>0.02033015439670404</v>
+        <v>0.03964959487794673</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,46 +782,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.647959666666667</v>
+        <v>2.537038666666667</v>
       </c>
       <c r="H6">
-        <v>4.943879000000001</v>
+        <v>7.611116</v>
       </c>
       <c r="I6">
-        <v>0.0454660920043603</v>
+        <v>0.06681654143767324</v>
       </c>
       <c r="J6">
-        <v>0.0454660920043603</v>
+        <v>0.06681654143767324</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.710031</v>
+        <v>1.357948666666666</v>
       </c>
       <c r="N6">
-        <v>2.130093</v>
+        <v>4.073846</v>
       </c>
       <c r="O6">
-        <v>0.9690438138807419</v>
+        <v>0.936754494361095</v>
       </c>
       <c r="P6">
-        <v>0.9690438138807419</v>
+        <v>0.936754494361095</v>
       </c>
       <c r="Q6">
-        <v>1.170102450083</v>
+        <v>3.445168274681777</v>
       </c>
       <c r="R6">
-        <v>10.530922050747</v>
+        <v>31.006514472136</v>
       </c>
       <c r="S6">
-        <v>0.04405863519815801</v>
+        <v>0.06259069548940475</v>
       </c>
       <c r="T6">
-        <v>0.04405863519815802</v>
+        <v>0.06259069548940475</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,46 +844,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.647959666666667</v>
+        <v>2.537038666666667</v>
       </c>
       <c r="H7">
-        <v>4.943879000000001</v>
+        <v>7.611116</v>
       </c>
       <c r="I7">
-        <v>0.0454660920043603</v>
+        <v>0.06681654143767324</v>
       </c>
       <c r="J7">
-        <v>0.0454660920043603</v>
+        <v>0.06681654143767324</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.022682</v>
+        <v>0.09168266666666665</v>
       </c>
       <c r="N7">
-        <v>0.06804600000000001</v>
+        <v>0.275048</v>
       </c>
       <c r="O7">
-        <v>0.03095618611925816</v>
+        <v>0.06324550563890498</v>
       </c>
       <c r="P7">
-        <v>0.03095618611925816</v>
+        <v>0.06324550563890496</v>
       </c>
       <c r="Q7">
-        <v>0.03737902115933334</v>
+        <v>0.2326024703964444</v>
       </c>
       <c r="R7">
-        <v>0.3364111904340001</v>
+        <v>2.093422233568</v>
       </c>
       <c r="S7">
-        <v>0.001407456806202293</v>
+        <v>0.004225845948268491</v>
       </c>
       <c r="T7">
-        <v>0.001407456806202293</v>
+        <v>0.00422584594826849</v>
       </c>
     </row>
   </sheetData>
